--- a/董建/01学习文档/01 顾问日报表.xlsx
+++ b/董建/01学习文档/01 顾问日报表.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="177">
   <si>
     <t>说明：①每天24:00前汇报当天的实际工作总结和明天的工作计划。②报表上报内容为累计上报，之前上报内容不能删除。③上报采用向上插入行的方式，即每天上报内容都在前面。④同一天的计划和实际完成行填充同一色系底色，见下表</t>
   </si>
@@ -64,6 +64,39 @@
   </si>
   <si>
     <t>项目</t>
+  </si>
+  <si>
+    <t>将插件编码规则的代码完善好，并将其提交到github上面</t>
+  </si>
+  <si>
+    <t>通过百度文档查询昨天学习erp留下来的不懂的名词等，然后学习关于插件编码的知识，通过单据与bos对应，再去看一下单据属性等</t>
+  </si>
+  <si>
+    <t>解决昨天erp遗留的如crm等名词，通过百度去了解一下这些名词所对应的意思，整理了一下文档，并尝试插件开发编码的任务</t>
+  </si>
+  <si>
+    <t>erp知识的一些名词性质东西有了简单了解，编码规则也有大概逻辑</t>
+  </si>
+  <si>
+    <t>并没有完全搞透编码规则这一块</t>
+  </si>
+  <si>
+    <t>在近期需要把插件编码规则研究好，然后转向api调用插件编码规则</t>
+  </si>
+  <si>
+    <t>学习关于erp的基础知识，了解erp系统的发展历程以及erp在企业中发挥的作用，对erp有一个基本的认知</t>
+  </si>
+  <si>
+    <t>听海峰哥讲解了基本的erp知识，通过一个简单的家庭主妇买菜例子讲解了erp的整个流程以及erp的发展路程</t>
+  </si>
+  <si>
+    <t>从整体上了解了erp的功能性与目前的局限性</t>
+  </si>
+  <si>
+    <t>没有很透彻的理解关于erp的根本</t>
+  </si>
+  <si>
+    <t>对于整个erp系统有了大致了解，简单性地了解erp的工作内容</t>
   </si>
   <si>
     <t>整理上周的学习内容，更改一下实习汇报的ppt，学习关于erp的视频教学</t>
@@ -552,9 +585,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
     <numFmt numFmtId="177" formatCode="m/d;@"/>
   </numFmts>
@@ -607,28 +640,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,65 +676,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -728,7 +701,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -742,9 +768,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,7 +794,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -818,24 +851,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -848,175 +863,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1310,24 +1325,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1343,32 +1340,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1397,6 +1373,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1411,16 +1402,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1429,137 +1444,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1573,9 +1588,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1609,52 +1621,49 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1711,70 +1720,70 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="14" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="14" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="14" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1786,13 +1795,13 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1810,40 +1819,40 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2202,7 +2211,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2218,1146 +2227,1176 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="13.5" spans="1:12">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="73"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="71"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="16.5" spans="1:12">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="14" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="74" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="75"/>
+      <c r="L2" s="73"/>
     </row>
     <row r="3" s="3" customFormat="1" ht="15" customHeight="1" spans="1:12">
-      <c r="A3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D3" s="19">
-        <v>0.71875</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
+      <c r="A3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="17">
+        <v>43665</v>
+      </c>
+      <c r="C3" s="18">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0.71875</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="15" customHeight="1" spans="1:12">
-      <c r="A4" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D4" s="19">
-        <v>0.71875</v>
-      </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
+      <c r="A4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="17">
+        <v>43664</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D4" s="18">
+        <v>0.71875</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="15" customHeight="1" spans="1:12">
-      <c r="A5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D5" s="19">
-        <v>0.71875</v>
-      </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
+      <c r="A5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="17">
+        <v>43663</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0.71875</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="15" customHeight="1" spans="1:12">
-      <c r="A6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D6" s="19">
-        <v>0.71875</v>
-      </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
+      <c r="A6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17">
+        <v>43662</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0.71875</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="15" customHeight="1" spans="1:12">
-      <c r="A7" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="22">
+      <c r="A7" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="17">
         <v>43661</v>
       </c>
-      <c r="C7" s="19">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D7" s="19">
-        <v>0.71875</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
+      <c r="C7" s="18">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0.71875</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
     </row>
     <row r="8" s="4" customFormat="1" ht="15" customHeight="1" spans="1:12">
-      <c r="A8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="24">
+      <c r="A8" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="22">
         <v>43658</v>
       </c>
-      <c r="C8" s="25">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D8" s="25">
-        <v>0.71875</v>
-      </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
+      <c r="C8" s="23">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D8" s="23">
+        <v>0.71875</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
     </row>
     <row r="9" s="4" customFormat="1" ht="15" customHeight="1" spans="1:12">
-      <c r="A9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="24">
+      <c r="A9" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="22">
         <v>43657</v>
       </c>
-      <c r="C9" s="25">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D9" s="25">
-        <v>0.71875</v>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-    </row>
-    <row r="10" s="5" customFormat="1" ht="15" customHeight="1" spans="1:12">
-      <c r="A10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="24">
+      <c r="C9" s="23">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D9" s="23">
+        <v>0.71875</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+    </row>
+    <row r="10" s="4" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="A10" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="22">
         <v>43656</v>
       </c>
-      <c r="C10" s="25">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D10" s="25">
-        <v>0.71875</v>
-      </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-    </row>
-    <row r="11" s="5" customFormat="1" ht="15" customHeight="1" spans="1:12">
-      <c r="A11" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="24">
+      <c r="C10" s="23">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D10" s="23">
+        <v>0.71875</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+    </row>
+    <row r="11" s="4" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="A11" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="22">
         <v>43655</v>
       </c>
-      <c r="C11" s="25">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D11" s="25">
-        <v>0.71875</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-    </row>
-    <row r="12" s="5" customFormat="1" ht="15" customHeight="1" spans="1:12">
-      <c r="A12" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="24">
+      <c r="C11" s="23">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D11" s="23">
+        <v>0.71875</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+    </row>
+    <row r="12" s="4" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="A12" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="22">
         <v>43654</v>
       </c>
-      <c r="C12" s="25">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D12" s="25">
-        <v>0.71875</v>
-      </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-    </row>
-    <row r="13" s="6" customFormat="1" ht="15" customHeight="1" spans="1:12">
-      <c r="A13" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="29">
+      <c r="C12" s="23">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D12" s="23">
+        <v>0.71875</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+    </row>
+    <row r="13" s="5" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="A13" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="27">
         <v>43649</v>
       </c>
-      <c r="C13" s="30">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D13" s="30">
-        <v>0.71875</v>
-      </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-    </row>
-    <row r="14" s="6" customFormat="1" ht="15" customHeight="1" spans="1:12">
-      <c r="A14" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="29">
+      <c r="C13" s="28">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D13" s="28">
+        <v>0.71875</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+    </row>
+    <row r="14" s="5" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="A14" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="27">
         <v>43648</v>
       </c>
-      <c r="C14" s="30">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D14" s="30">
-        <v>0.71875</v>
-      </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-    </row>
-    <row r="15" s="6" customFormat="1" ht="15" customHeight="1" spans="1:12">
-      <c r="A15" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="29">
+      <c r="C14" s="28">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D14" s="28">
+        <v>0.71875</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+    </row>
+    <row r="15" s="5" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="A15" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="27">
         <v>43647</v>
       </c>
-      <c r="C15" s="30">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D15" s="30">
-        <v>0.71875</v>
-      </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-    </row>
-    <row r="16" s="7" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A16" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="33">
+      <c r="C15" s="28">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D15" s="28">
+        <v>0.71875</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+    </row>
+    <row r="16" s="6" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
+      <c r="A16" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="31">
         <v>43644</v>
       </c>
-      <c r="C16" s="34">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D16" s="34">
-        <v>0.71875</v>
-      </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="J16" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-    </row>
-    <row r="17" s="7" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A17" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="33">
+      <c r="C16" s="32">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D16" s="32">
+        <v>0.71875</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+    </row>
+    <row r="17" s="6" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
+      <c r="A17" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="31">
         <v>43643</v>
       </c>
-      <c r="C17" s="34">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D17" s="34">
-        <v>0.71875</v>
-      </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="J17" s="79" t="s">
-        <v>60</v>
-      </c>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-    </row>
-    <row r="18" s="7" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A18" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="33">
+      <c r="C17" s="32">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D17" s="32">
+        <v>0.71875</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="J17" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+    </row>
+    <row r="18" s="6" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
+      <c r="A18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="31">
         <v>43642</v>
       </c>
-      <c r="C18" s="34">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D18" s="34">
-        <v>0.71875</v>
-      </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="I18" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="J18" s="79" t="s">
-        <v>65</v>
-      </c>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-    </row>
-    <row r="19" s="7" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A19" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="33">
+      <c r="C18" s="32">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D18" s="32">
+        <v>0.71875</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+    </row>
+    <row r="19" s="6" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
+      <c r="A19" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="31">
         <v>43641</v>
       </c>
-      <c r="C19" s="34">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D19" s="34">
-        <v>0.71875</v>
-      </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="I19" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="J19" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-    </row>
-    <row r="20" s="7" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A20" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="33">
+      <c r="C19" s="32">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D19" s="32">
+        <v>0.71875</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+    </row>
+    <row r="20" s="6" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
+      <c r="A20" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="31">
         <v>43640</v>
       </c>
-      <c r="C20" s="34">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D20" s="34">
-        <v>0.71875</v>
-      </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="I20" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="J20" s="79" t="s">
-        <v>75</v>
-      </c>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-    </row>
-    <row r="21" s="8" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A21" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="37">
+      <c r="C20" s="32">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D20" s="32">
+        <v>0.71875</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+    </row>
+    <row r="21" s="7" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
+      <c r="A21" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="35">
         <v>43637</v>
       </c>
-      <c r="C21" s="38">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D21" s="38">
-        <v>0.71875</v>
-      </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="I21" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="J21" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-    </row>
-    <row r="22" s="8" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A22" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="37">
+      <c r="C21" s="36">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D21" s="36">
+        <v>0.71875</v>
+      </c>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+    </row>
+    <row r="22" s="7" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
+      <c r="A22" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="35">
         <v>43636</v>
       </c>
-      <c r="C22" s="38">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D22" s="38">
-        <v>0.71875</v>
-      </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="H22" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="I22" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="J22" s="80" t="s">
-        <v>85</v>
-      </c>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-    </row>
-    <row r="23" s="8" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A23" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="37">
+      <c r="C22" s="36">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D22" s="36">
+        <v>0.71875</v>
+      </c>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+    </row>
+    <row r="23" s="7" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
+      <c r="A23" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="35">
         <v>43635</v>
       </c>
-      <c r="C23" s="38">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D23" s="38">
-        <v>0.71875</v>
-      </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="H23" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="I23" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="J23" s="80" t="s">
-        <v>90</v>
-      </c>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-    </row>
-    <row r="24" s="8" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A24" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="37">
+      <c r="C23" s="36">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D23" s="36">
+        <v>0.71875</v>
+      </c>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="J23" s="78" t="s">
+        <v>101</v>
+      </c>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+    </row>
+    <row r="24" s="7" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
+      <c r="A24" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="35">
         <v>43634</v>
       </c>
-      <c r="C24" s="38">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D24" s="38">
-        <v>0.71875</v>
-      </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="H24" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="I24" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="J24" s="80" t="s">
-        <v>95</v>
-      </c>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-    </row>
-    <row r="25" s="8" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A25" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="37">
+      <c r="C24" s="36">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D24" s="36">
+        <v>0.71875</v>
+      </c>
+      <c r="E24" s="37"/>
+      <c r="F24" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="J24" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+    </row>
+    <row r="25" s="7" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
+      <c r="A25" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="35">
         <v>43633</v>
       </c>
-      <c r="C25" s="38">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D25" s="38">
-        <v>0.71875</v>
-      </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="G25" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="H25" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="I25" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="J25" s="81" t="s">
-        <v>100</v>
-      </c>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-    </row>
-    <row r="26" s="9" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A26" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="43">
+      <c r="C25" s="36">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D25" s="36">
+        <v>0.71875</v>
+      </c>
+      <c r="E25" s="37"/>
+      <c r="F25" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="I25" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="J25" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+    </row>
+    <row r="26" s="8" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
+      <c r="A26" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="41">
         <v>43585</v>
       </c>
-      <c r="C26" s="44">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D26" s="44">
-        <v>0.71875</v>
-      </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="G26" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="H26" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="I26" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="J26" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-    </row>
-    <row r="27" s="9" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A27" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="43">
+      <c r="C26" s="42">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D26" s="42">
+        <v>0.71875</v>
+      </c>
+      <c r="E26" s="43"/>
+      <c r="F26" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="J26" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+    </row>
+    <row r="27" s="8" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
+      <c r="A27" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="41">
         <v>43584</v>
       </c>
-      <c r="C27" s="48">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D27" s="48">
-        <v>0.71875</v>
-      </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="G27" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="H27" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="I27" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="J27" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-    </row>
-    <row r="28" s="9" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A28" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="43">
+      <c r="C27" s="46">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D27" s="46">
+        <v>0.71875</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="I27" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="J27" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+    </row>
+    <row r="28" s="8" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
+      <c r="A28" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="41">
         <v>43583</v>
       </c>
-      <c r="C28" s="44">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D28" s="44">
-        <v>0.71875</v>
-      </c>
-      <c r="E28" s="50"/>
-      <c r="F28" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="G28" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="H28" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="I28" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="J28" s="83" t="s">
-        <v>115</v>
-      </c>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
+      <c r="C28" s="42">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D28" s="42">
+        <v>0.71875</v>
+      </c>
+      <c r="E28" s="48"/>
+      <c r="F28" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="I28" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="J28" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
     </row>
     <row r="29" s="2" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A29" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="52">
+      <c r="A29" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="50">
         <v>43581</v>
       </c>
-      <c r="C29" s="53">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D29" s="53">
-        <v>0.71875</v>
-      </c>
-      <c r="E29" s="54"/>
-      <c r="F29" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="G29" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="H29" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="I29" s="84" t="s">
-        <v>119</v>
-      </c>
-      <c r="J29" s="85" t="s">
-        <v>120</v>
-      </c>
-      <c r="K29" s="86"/>
-      <c r="L29" s="87"/>
+      <c r="C29" s="51">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D29" s="51">
+        <v>0.71875</v>
+      </c>
+      <c r="E29" s="52"/>
+      <c r="F29" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="G29" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="I29" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="J29" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="K29" s="84"/>
+      <c r="L29" s="85"/>
     </row>
     <row r="30" s="2" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A30" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="59">
+      <c r="A30" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="57">
         <v>43580</v>
       </c>
-      <c r="C30" s="60">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D30" s="60">
-        <v>0.71875</v>
-      </c>
-      <c r="E30" s="61"/>
-      <c r="F30" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="G30" s="63" t="s">
-        <v>122</v>
-      </c>
-      <c r="H30" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="I30" s="88" t="s">
-        <v>124</v>
-      </c>
-      <c r="J30" s="89" t="s">
-        <v>125</v>
-      </c>
-      <c r="K30" s="90"/>
-      <c r="L30" s="91"/>
+      <c r="C30" s="58">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D30" s="58">
+        <v>0.71875</v>
+      </c>
+      <c r="E30" s="59"/>
+      <c r="F30" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="H30" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="I30" s="86" t="s">
+        <v>135</v>
+      </c>
+      <c r="J30" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="K30" s="88"/>
+      <c r="L30" s="89"/>
     </row>
     <row r="31" s="2" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A31" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="59">
+      <c r="A31" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="57">
         <v>43579</v>
       </c>
-      <c r="C31" s="60">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D31" s="60">
-        <v>0.71875</v>
-      </c>
-      <c r="E31" s="61"/>
-      <c r="F31" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="G31" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="H31" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="I31" s="88" t="s">
-        <v>129</v>
-      </c>
-      <c r="J31" s="89" t="s">
-        <v>130</v>
-      </c>
-      <c r="K31" s="90"/>
-      <c r="L31" s="91"/>
+      <c r="C31" s="58">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D31" s="58">
+        <v>0.71875</v>
+      </c>
+      <c r="E31" s="59"/>
+      <c r="F31" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="I31" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="J31" s="87" t="s">
+        <v>141</v>
+      </c>
+      <c r="K31" s="88"/>
+      <c r="L31" s="89"/>
     </row>
     <row r="32" s="2" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A32" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="59">
+      <c r="A32" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="57">
         <v>43578</v>
       </c>
-      <c r="C32" s="60">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D32" s="60">
-        <v>0.71875</v>
-      </c>
-      <c r="E32" s="61"/>
-      <c r="F32" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="G32" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="H32" s="64" t="s">
-        <v>133</v>
-      </c>
-      <c r="I32" s="88" t="s">
-        <v>134</v>
-      </c>
-      <c r="J32" s="89" t="s">
-        <v>135</v>
-      </c>
-      <c r="K32" s="90"/>
-      <c r="L32" s="91"/>
+      <c r="C32" s="58">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D32" s="58">
+        <v>0.71875</v>
+      </c>
+      <c r="E32" s="59"/>
+      <c r="F32" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="H32" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="I32" s="86" t="s">
+        <v>145</v>
+      </c>
+      <c r="J32" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="K32" s="88"/>
+      <c r="L32" s="89"/>
     </row>
     <row r="33" s="2" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A33" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="59">
+      <c r="A33" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="57">
         <v>43577</v>
       </c>
-      <c r="C33" s="60">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D33" s="60">
-        <v>0.71875</v>
-      </c>
-      <c r="E33" s="61"/>
-      <c r="F33" s="62" t="s">
-        <v>136</v>
-      </c>
-      <c r="G33" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="H33" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="I33" s="88" t="s">
-        <v>139</v>
-      </c>
-      <c r="J33" s="89" t="s">
-        <v>140</v>
-      </c>
-      <c r="K33" s="90"/>
-      <c r="L33" s="91"/>
+      <c r="C33" s="58">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D33" s="58">
+        <v>0.71875</v>
+      </c>
+      <c r="E33" s="59"/>
+      <c r="F33" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="G33" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="H33" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="I33" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="J33" s="87" t="s">
+        <v>151</v>
+      </c>
+      <c r="K33" s="88"/>
+      <c r="L33" s="89"/>
     </row>
     <row r="34" s="2" customFormat="1" ht="34.5" customHeight="1" spans="1:12">
-      <c r="A34" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="66">
+      <c r="A34" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="64">
         <v>43574</v>
       </c>
-      <c r="C34" s="67">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D34" s="68">
-        <v>0.71875</v>
-      </c>
-      <c r="E34" s="69"/>
-      <c r="F34" s="70" t="s">
-        <v>141</v>
-      </c>
-      <c r="G34" s="71" t="s">
-        <v>142</v>
-      </c>
-      <c r="H34" s="72" t="s">
-        <v>143</v>
-      </c>
-      <c r="I34" s="92" t="s">
-        <v>144</v>
-      </c>
-      <c r="J34" s="93" t="s">
-        <v>145</v>
-      </c>
-      <c r="K34" s="94"/>
-      <c r="L34" s="95"/>
+      <c r="C34" s="65">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D34" s="66">
+        <v>0.71875</v>
+      </c>
+      <c r="E34" s="67"/>
+      <c r="F34" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="G34" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="H34" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="I34" s="90" t="s">
+        <v>155</v>
+      </c>
+      <c r="J34" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="K34" s="92"/>
+      <c r="L34" s="93"/>
     </row>
     <row r="35" s="2" customFormat="1" ht="34.5" customHeight="1" spans="1:12">
-      <c r="A35" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="66">
+      <c r="A35" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="64">
         <v>43573</v>
       </c>
-      <c r="C35" s="67">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D35" s="68">
-        <v>0.71875</v>
-      </c>
-      <c r="E35" s="69"/>
-      <c r="F35" s="70" t="s">
-        <v>146</v>
-      </c>
-      <c r="G35" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="H35" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="I35" s="92" t="s">
-        <v>149</v>
-      </c>
-      <c r="J35" s="93" t="s">
-        <v>150</v>
-      </c>
-      <c r="K35" s="94"/>
-      <c r="L35" s="95"/>
+      <c r="C35" s="65">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D35" s="66">
+        <v>0.71875</v>
+      </c>
+      <c r="E35" s="67"/>
+      <c r="F35" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="G35" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="H35" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="I35" s="90" t="s">
+        <v>160</v>
+      </c>
+      <c r="J35" s="91" t="s">
+        <v>161</v>
+      </c>
+      <c r="K35" s="92"/>
+      <c r="L35" s="93"/>
     </row>
     <row r="36" s="2" customFormat="1" ht="34.5" customHeight="1" spans="1:12">
-      <c r="A36" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="66">
+      <c r="A36" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="64">
         <v>43572</v>
       </c>
-      <c r="C36" s="67">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D36" s="68">
-        <v>0.71875</v>
-      </c>
-      <c r="E36" s="69"/>
-      <c r="F36" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="G36" s="71" t="s">
-        <v>152</v>
-      </c>
-      <c r="H36" s="72" t="s">
-        <v>153</v>
-      </c>
-      <c r="I36" s="92" t="s">
-        <v>154</v>
-      </c>
-      <c r="J36" s="93" t="s">
-        <v>155</v>
-      </c>
-      <c r="K36" s="94"/>
-      <c r="L36" s="95"/>
+      <c r="C36" s="65">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D36" s="66">
+        <v>0.71875</v>
+      </c>
+      <c r="E36" s="67"/>
+      <c r="F36" s="68" t="s">
+        <v>162</v>
+      </c>
+      <c r="G36" s="69" t="s">
+        <v>163</v>
+      </c>
+      <c r="H36" s="70" t="s">
+        <v>164</v>
+      </c>
+      <c r="I36" s="90" t="s">
+        <v>165</v>
+      </c>
+      <c r="J36" s="91" t="s">
+        <v>166</v>
+      </c>
+      <c r="K36" s="92"/>
+      <c r="L36" s="93"/>
     </row>
     <row r="37" s="2" customFormat="1" ht="34.5" customHeight="1" spans="1:12">
-      <c r="A37" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="66">
+      <c r="A37" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="64">
         <v>43571</v>
       </c>
-      <c r="C37" s="67">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D37" s="68">
-        <v>0.71875</v>
-      </c>
-      <c r="E37" s="69"/>
-      <c r="F37" s="70" t="s">
-        <v>156</v>
-      </c>
-      <c r="G37" s="71" t="s">
-        <v>157</v>
-      </c>
-      <c r="H37" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="I37" s="92" t="s">
-        <v>159</v>
-      </c>
-      <c r="J37" s="93" t="s">
-        <v>160</v>
-      </c>
-      <c r="K37" s="94"/>
-      <c r="L37" s="95"/>
+      <c r="C37" s="65">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D37" s="66">
+        <v>0.71875</v>
+      </c>
+      <c r="E37" s="67"/>
+      <c r="F37" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="G37" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="H37" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="I37" s="90" t="s">
+        <v>170</v>
+      </c>
+      <c r="J37" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="K37" s="92"/>
+      <c r="L37" s="93"/>
     </row>
     <row r="38" s="2" customFormat="1" ht="32.25" customHeight="1" spans="1:12">
-      <c r="A38" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="66">
+      <c r="A38" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="64">
         <v>43570</v>
       </c>
-      <c r="C38" s="67">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D38" s="68">
-        <v>0.71875</v>
-      </c>
-      <c r="E38" s="69"/>
-      <c r="F38" s="70" t="s">
-        <v>161</v>
-      </c>
-      <c r="G38" s="71" t="s">
-        <v>162</v>
-      </c>
-      <c r="H38" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="I38" s="92" t="s">
-        <v>164</v>
-      </c>
-      <c r="J38" s="93" t="s">
-        <v>165</v>
-      </c>
-      <c r="K38" s="94"/>
-      <c r="L38" s="95"/>
+      <c r="C38" s="65">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D38" s="66">
+        <v>0.71875</v>
+      </c>
+      <c r="E38" s="67"/>
+      <c r="F38" s="68" t="s">
+        <v>172</v>
+      </c>
+      <c r="G38" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="H38" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="I38" s="90" t="s">
+        <v>175</v>
+      </c>
+      <c r="J38" s="91" t="s">
+        <v>176</v>
+      </c>
+      <c r="K38" s="92"/>
+      <c r="L38" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/董建/01学习文档/01 顾问日报表.xlsx
+++ b/董建/01学习文档/01 顾问日报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="6800"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="日报表" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="186">
   <si>
     <t>说明：①每天24:00前汇报当天的实际工作总结和明天的工作计划。②报表上报内容为累计上报，之前上报内容不能删除。③上报采用向上插入行的方式，即每天上报内容都在前面。④同一天的计划和实际完成行填充同一色系底色，见下表</t>
   </si>
@@ -66,7 +66,34 @@
     <t>项目</t>
   </si>
   <si>
+    <t>整理一周的学习内容，查漏补缺，然后通过社区里的视频在学习一边单据的东西，应该可以更好的理解</t>
+  </si>
+  <si>
+    <t>复习了初期学习的视频，完成项目经理布置的插件任务</t>
+  </si>
+  <si>
+    <t>学会了如何在bos中设置定时插件</t>
+  </si>
+  <si>
+    <t>对于bos中很多任务没有认知</t>
+  </si>
+  <si>
+    <t>又学会了一个基本插件的编写，对代码方面有更好的理解</t>
+  </si>
+  <si>
     <t>将插件编码规则的代码完善好，并将其提交到github上面</t>
+  </si>
+  <si>
+    <t>尝试编码规则失败，不清楚编码规则具体怎么调用</t>
+  </si>
+  <si>
+    <t>知道了调用编码规则的语句</t>
+  </si>
+  <si>
+    <t>没有理解并使用好编码规则</t>
+  </si>
+  <si>
+    <t>针对bos产品的单据配置还需要进一步去学习</t>
   </si>
   <si>
     <t>通过百度文档查询昨天学习erp留下来的不懂的名词等，然后学习关于插件编码的知识，通过单据与bos对应，再去看一下单据属性等</t>
@@ -584,12 +611,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
     <numFmt numFmtId="177" formatCode="m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -639,6 +666,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -646,31 +681,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,24 +697,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -716,7 +727,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -725,36 +736,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -769,7 +750,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -780,6 +799,14 @@
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -863,13 +890,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,157 +986,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1325,35 +1352,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1373,6 +1371,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1388,17 +1410,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1432,10 +1459,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1444,133 +1471,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2211,7 +2238,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2278,11 +2305,21 @@
         <v>0.71875</v>
       </c>
       <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
+      <c r="F3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="K3" s="74"/>
       <c r="L3" s="74"/>
     </row>
@@ -2301,12 +2338,20 @@
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+        <v>11</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="K4" s="74"/>
       <c r="L4" s="74"/>
     </row>
@@ -2325,19 +2370,19 @@
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="20" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K5" s="74"/>
       <c r="L5" s="74"/>
@@ -2357,19 +2402,19 @@
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="20" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K6" s="74"/>
       <c r="L6" s="74"/>
@@ -2389,19 +2434,19 @@
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="20" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K7" s="74"/>
       <c r="L7" s="74"/>
@@ -2421,19 +2466,19 @@
       </c>
       <c r="E8" s="24"/>
       <c r="F8" s="25" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="J8" s="25" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="K8" s="75"/>
       <c r="L8" s="75"/>
@@ -2453,19 +2498,19 @@
       </c>
       <c r="E9" s="24"/>
       <c r="F9" s="25" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K9" s="75"/>
       <c r="L9" s="75"/>
@@ -2485,19 +2530,19 @@
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="25" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K10" s="75"/>
       <c r="L10" s="75"/>
@@ -2517,19 +2562,19 @@
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="25" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="K11" s="75"/>
       <c r="L11" s="75"/>
@@ -2549,19 +2594,19 @@
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="25" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="K12" s="75"/>
       <c r="L12" s="75"/>
@@ -2581,19 +2626,19 @@
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="30" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="K13" s="76"/>
       <c r="L13" s="76"/>
@@ -2613,19 +2658,19 @@
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="30" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K14" s="76"/>
       <c r="L14" s="76"/>
@@ -2645,19 +2690,19 @@
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="30" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="K15" s="76"/>
       <c r="L15" s="76"/>
@@ -2677,19 +2722,19 @@
       </c>
       <c r="E16" s="33"/>
       <c r="F16" s="34" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="J16" s="77" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="K16" s="33"/>
       <c r="L16" s="33"/>
@@ -2709,19 +2754,19 @@
       </c>
       <c r="E17" s="33"/>
       <c r="F17" s="34" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="J17" s="77" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="K17" s="33"/>
       <c r="L17" s="33"/>
@@ -2741,19 +2786,19 @@
       </c>
       <c r="E18" s="33"/>
       <c r="F18" s="34" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J18" s="77" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K18" s="33"/>
       <c r="L18" s="33"/>
@@ -2773,19 +2818,19 @@
       </c>
       <c r="E19" s="33"/>
       <c r="F19" s="34" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H19" s="34" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J19" s="77" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K19" s="33"/>
       <c r="L19" s="33"/>
@@ -2805,19 +2850,19 @@
       </c>
       <c r="E20" s="33"/>
       <c r="F20" s="34" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H20" s="34" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="I20" s="34" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="J20" s="77" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="K20" s="33"/>
       <c r="L20" s="33"/>
@@ -2837,19 +2882,19 @@
       </c>
       <c r="E21" s="37"/>
       <c r="F21" s="38" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="I21" s="38" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="J21" s="78" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K21" s="37"/>
       <c r="L21" s="37"/>
@@ -2869,19 +2914,19 @@
       </c>
       <c r="E22" s="37"/>
       <c r="F22" s="38" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="I22" s="38" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="J22" s="78" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K22" s="37"/>
       <c r="L22" s="37"/>
@@ -2901,19 +2946,19 @@
       </c>
       <c r="E23" s="37"/>
       <c r="F23" s="38" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J23" s="78" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
@@ -2933,19 +2978,19 @@
       </c>
       <c r="E24" s="37"/>
       <c r="F24" s="40" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="I24" s="39" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="J24" s="78" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K24" s="37"/>
       <c r="L24" s="37"/>
@@ -2965,19 +3010,19 @@
       </c>
       <c r="E25" s="37"/>
       <c r="F25" s="40" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="H25" s="39" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="I25" s="38" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="J25" s="79" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
@@ -2997,19 +3042,19 @@
       </c>
       <c r="E26" s="43"/>
       <c r="F26" s="44" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G26" s="45" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="H26" s="45" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="I26" s="45" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J26" s="80" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K26" s="43"/>
       <c r="L26" s="43"/>
@@ -3029,19 +3074,19 @@
       </c>
       <c r="E27" s="41"/>
       <c r="F27" s="41" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="H27" s="41" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I27" s="41" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J27" s="41" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K27" s="43"/>
       <c r="L27" s="43"/>
@@ -3061,19 +3106,19 @@
       </c>
       <c r="E28" s="48"/>
       <c r="F28" s="44" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G28" s="44" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="H28" s="44" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="I28" s="44" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="J28" s="81" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="K28" s="43"/>
       <c r="L28" s="43"/>
@@ -3093,19 +3138,19 @@
       </c>
       <c r="E29" s="52"/>
       <c r="F29" s="53" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="G29" s="54" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="H29" s="55" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="I29" s="82" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="J29" s="83" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="K29" s="84"/>
       <c r="L29" s="85"/>
@@ -3125,19 +3170,19 @@
       </c>
       <c r="E30" s="59"/>
       <c r="F30" s="60" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="G30" s="61" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="H30" s="62" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="I30" s="86" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="J30" s="87" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="K30" s="88"/>
       <c r="L30" s="89"/>
@@ -3157,19 +3202,19 @@
       </c>
       <c r="E31" s="59"/>
       <c r="F31" s="60" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="G31" s="61" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="H31" s="62" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="I31" s="86" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="J31" s="87" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="K31" s="88"/>
       <c r="L31" s="89"/>
@@ -3189,19 +3234,19 @@
       </c>
       <c r="E32" s="59"/>
       <c r="F32" s="60" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="G32" s="61" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="H32" s="62" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="I32" s="86" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="J32" s="87" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="K32" s="88"/>
       <c r="L32" s="89"/>
@@ -3221,19 +3266,19 @@
       </c>
       <c r="E33" s="59"/>
       <c r="F33" s="60" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="G33" s="61" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="H33" s="62" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="I33" s="86" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="J33" s="87" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="K33" s="88"/>
       <c r="L33" s="89"/>
@@ -3253,19 +3298,19 @@
       </c>
       <c r="E34" s="67"/>
       <c r="F34" s="68" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="G34" s="69" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="H34" s="70" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="I34" s="90" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="J34" s="91" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="K34" s="92"/>
       <c r="L34" s="93"/>
@@ -3285,19 +3330,19 @@
       </c>
       <c r="E35" s="67"/>
       <c r="F35" s="68" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G35" s="69" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="H35" s="70" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I35" s="90" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="J35" s="91" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="K35" s="92"/>
       <c r="L35" s="93"/>
@@ -3317,19 +3362,19 @@
       </c>
       <c r="E36" s="67"/>
       <c r="F36" s="68" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="G36" s="69" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="H36" s="70" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="I36" s="90" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="J36" s="91" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="K36" s="92"/>
       <c r="L36" s="93"/>
@@ -3349,19 +3394,19 @@
       </c>
       <c r="E37" s="67"/>
       <c r="F37" s="68" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G37" s="69" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="H37" s="70" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="I37" s="90" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="J37" s="91" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="K37" s="92"/>
       <c r="L37" s="93"/>
@@ -3381,19 +3426,19 @@
       </c>
       <c r="E38" s="67"/>
       <c r="F38" s="68" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="G38" s="69" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="H38" s="70" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="I38" s="90" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="J38" s="91" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="K38" s="92"/>
       <c r="L38" s="93"/>

--- a/董建/01学习文档/01 顾问日报表.xlsx
+++ b/董建/01学习文档/01 顾问日报表.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="18650" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="日报表" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">日报表!$B$24:$B$27</definedName>
+  </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="218">
   <si>
     <t>说明：①每天24:00前汇报当天的实际工作总结和明天的工作计划。②报表上报内容为累计上报，之前上报内容不能删除。③上报采用向上插入行的方式，即每天上报内容都在前面。④同一天的计划和实际完成行填充同一色系底色，见下表</t>
   </si>
@@ -64,6 +67,121 @@
   </si>
   <si>
     <t>项目</t>
+  </si>
+  <si>
+    <t>参加ICRM系统操作培训，并在系统中做汇报且参与总部检查。</t>
+  </si>
+  <si>
+    <t>协助税务模块私包的部署。---董建
+测试台账罗列取数是否解决大部分的问题，尝试解决问题记录表。---董建</t>
+  </si>
+  <si>
+    <t>进行新补丁包的部署与测试。</t>
+  </si>
+  <si>
+    <t>听总部老师讲解税务问题的遗留问题。---董建
+整理台账底稿审核表中的各种问题，将未解决的问题记录整理。---董建</t>
+  </si>
+  <si>
+    <t>返回公司参加会议。---董建
+整理顾问日报表。---董建</t>
+  </si>
+  <si>
+    <t>完成税务台账模块，进项发票明细-专票表中的发票状态，认证方式，税款所属期取数设置。---董建
+对照总部老师的“威高表单结构解决方法”处理税务模块表单，整理记录。---董建</t>
+  </si>
+  <si>
+    <t>更改主表中取数公式的设置。---董建
+调试测试其他台账和底稿的数据源设置。---董建</t>
+  </si>
+  <si>
+    <t>1.完成税务台账模块，进项发票明细-专票表中的发票状态，认证方式，税款所属期取数设置。---董建
+2.对照总部老师的“威高表单结构解决方法”处理税务模块表单，整理记录。---董建</t>
+  </si>
+  <si>
+    <t>出发去威高。---董建
+增值税补充申报表中自动取数字段的实现。---董建</t>
+  </si>
+  <si>
+    <t>出发去威高。---董建
+完成增值税补充申报表中自动取数公式的设置，已完成。---董建
+完成主表的编辑，样式完成，取数公式没有完成。---董建</t>
+  </si>
+  <si>
+    <t>公司周一例会，前往威高。---董建
+协助项目经理解决税务模块剩余任务。---董建</t>
+  </si>
+  <si>
+    <t>整理云星空中日志插件的资料写进文档。---董建
+参加实施同事的存货核算的培训学习。--董建</t>
+  </si>
+  <si>
+    <t>测试调试台账与底稿之间取数的设置。---董建
+学习DEP开发的文档。</t>
+  </si>
+  <si>
+    <t>完成威高税务模块台账，底稿，审核表，附表的整理。---董建。
+威高税务模块的跨表条件汇总，没有实现。---董建</t>
+  </si>
+  <si>
+    <t>测试底稿中条件汇总的数据。---董建
+附表中表中公式的调整。---董建
+整体数据测试，寻找另外方法解决汇总。---董建</t>
+  </si>
+  <si>
+    <t>完成增值纳税申报表附表二的设计，跨表条件汇总未完成。---董建
+完成审核表：集团审批/分析，已完成。---董建</t>
+  </si>
+  <si>
+    <t>讨论解决台账编制数据源与底稿函数问题，成底稿中进项账票对比的表。</t>
+  </si>
+  <si>
+    <t>底稿-进项税额-账票对比，附表二，样式完成。---董建
+底稿-进项税额-张票对比：四个模块的发票代码，发票号码，销方名称，发票税额，账套，凭证号，认证日期，税款所属期公式完成。---董建
+附表二中表中的公式完成，其他表间取数均为汇总公式，未完成。---董建</t>
+  </si>
+  <si>
+    <t>出发去威高。学习税务方面知识。学习EAS产品的基础操作。</t>
+  </si>
+  <si>
+    <t>完成台账编制的表。进项发票明细-专票样式与取数设置完成，部分数据源未完成。
+进项发票明细-其他样式与取数设置完成，部分数据源未完成。汇总计算表样式完成，插入的函数问题未解决。</t>
+  </si>
+  <si>
+    <t>公司会议，整理金蝶云星空的学习内容与笔记，整理github的东西。</t>
+  </si>
+  <si>
+    <t>论坛搜索日志接口，配置插件监控日志，学习ERP流程图，以及wbs，学习C#操作输入输出流与log4net操作日志文件。</t>
+  </si>
+  <si>
+    <t>学习ERP原理PPT，下午考试</t>
+  </si>
+  <si>
+    <t>上午学习ERP原理及应用PPT ，下午进行试用考试。</t>
+  </si>
+  <si>
+    <t>上午学习HR提供的ERP资料与企业文化，下午考试。</t>
+  </si>
+  <si>
+    <t>学习HR提供的ERP资料与企业文化，修改试用汇报的ppt已完成。搭建VS热更新，并使用在插件上面已完成。</t>
+  </si>
+  <si>
+    <t>编写调试供应商过滤条件的插件并调试。</t>
+  </si>
+  <si>
+    <t>测试环境【供应商列表】中将各供应商分配到新建的分组中，插件实现【应付款汇总表】增加【供应商分组】查询功能，已实现。</t>
+  </si>
+  <si>
+    <t>研究过滤插件的编写与配置，使供应商列表中可以按供应商分组查询。</t>
+  </si>
+  <si>
+    <t>学习了过滤插件编写的基本流程与demo，调试应付款汇总表的条件过滤。</t>
+  </si>
+  <si>
+    <t>公司会议，学习erp与财务知识，更改ppt应对试用汇报</t>
+  </si>
+  <si>
+    <t>针对公司标准的ppt进行更改，了解了公司汇报三步走，以及基础的erp与财务知识。</t>
   </si>
   <si>
     <t>整理一周的学习内容，查漏补缺，然后通过社区里的视频在学习一边单据的东西，应该可以更好的理解</t>
@@ -611,12 +729,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
     <numFmt numFmtId="177" formatCode="m/d;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -641,15 +759,15 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -666,53 +784,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -727,7 +800,98 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -741,54 +905,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -803,10 +921,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -821,12 +939,36 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -854,12 +996,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -867,12 +1003,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,43 +1020,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,7 +1044,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,19 +1056,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,19 +1116,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,19 +1140,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,19 +1158,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,7 +1170,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,45 +1491,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1433,8 +1518,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1453,16 +1562,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1471,137 +1595,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1609,58 +1733,67 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1672,9 +1805,6 @@
     <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1687,199 +1817,232 @@
     <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2235,10 +2398,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2254,1196 +2417,1844 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="13.5" spans="1:12">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="71"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="84"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="16.5" spans="1:12">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="13" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="72" t="s">
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="73"/>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="15" customHeight="1" spans="1:12">
-      <c r="A3" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="17">
+      <c r="L2" s="86"/>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="16.5" spans="1:10">
+      <c r="A3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="21">
+        <v>43705</v>
+      </c>
+      <c r="C3" s="22">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D3" s="22">
+        <v>0.71875</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="16.5" spans="1:10">
+      <c r="A4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="21">
+        <v>43704</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D4" s="22">
+        <v>0.71875</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="16.5" spans="1:10">
+      <c r="A5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="21">
+        <v>43703</v>
+      </c>
+      <c r="C5" s="22">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D5" s="22">
+        <v>0.71875</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="16.5" spans="1:10">
+      <c r="A6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21">
+        <v>43700</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0.71875</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="16.5" spans="1:10">
+      <c r="A7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="21">
+        <v>43699</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0.71875</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="16.5" spans="1:10">
+      <c r="A8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="21">
+        <v>43698</v>
+      </c>
+      <c r="C8" s="22">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0.71875</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="16.5" spans="1:10">
+      <c r="A9" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="21">
+        <v>43697</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D9" s="22">
+        <v>0.71875</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="16.5" spans="1:10">
+      <c r="A10" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="21">
+        <v>43696</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D10" s="22">
+        <v>0.71875</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="16.5" spans="1:10">
+      <c r="A11" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="21">
+        <v>43693</v>
+      </c>
+      <c r="C11" s="22">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D11" s="22">
+        <v>0.71875</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="16.5" spans="1:10">
+      <c r="A12" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="21">
+        <v>43692</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0.71875</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" s="3" customFormat="1" ht="16.5" spans="1:10">
+      <c r="A13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="21">
+        <v>43691</v>
+      </c>
+      <c r="C13" s="22">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D13" s="22">
+        <v>0.71875</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" s="3" customFormat="1" ht="16.5" spans="1:10">
+      <c r="A14" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="21">
+        <v>43690</v>
+      </c>
+      <c r="C14" s="22">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D14" s="22">
+        <v>0.71875</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" s="3" customFormat="1" ht="16.5" spans="1:10">
+      <c r="A15" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="21">
+        <v>43689</v>
+      </c>
+      <c r="C15" s="22">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D15" s="22">
+        <v>0.71875</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+    </row>
+    <row r="16" s="4" customFormat="1" ht="39" spans="1:10">
+      <c r="A16" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="25">
+        <v>43687</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D16" s="26">
+        <v>0.71875</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+    </row>
+    <row r="17" s="4" customFormat="1" ht="52" spans="1:10">
+      <c r="A17" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="25">
+        <v>43686</v>
+      </c>
+      <c r="C17" s="26">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D17" s="26">
+        <v>0.71875</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" s="4" customFormat="1" ht="65" spans="1:10">
+      <c r="A18" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="25">
+        <v>43685</v>
+      </c>
+      <c r="C18" s="26">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D18" s="26">
+        <v>0.71875</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" s="4" customFormat="1" ht="65" spans="1:10">
+      <c r="A19" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="25">
+        <v>43684</v>
+      </c>
+      <c r="C19" s="26">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D19" s="26">
+        <v>0.71875</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+    </row>
+    <row r="20" s="4" customFormat="1" ht="65" spans="1:10">
+      <c r="A20" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="25">
+        <v>43683</v>
+      </c>
+      <c r="C20" s="26">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D20" s="26">
+        <v>0.71875</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+    </row>
+    <row r="21" s="4" customFormat="1" ht="52" spans="1:10">
+      <c r="A21" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="25">
+        <v>43682</v>
+      </c>
+      <c r="C21" s="26">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D21" s="26">
+        <v>0.71875</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+    </row>
+    <row r="22" s="5" customFormat="1" ht="52" spans="1:10">
+      <c r="A22" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="29">
+        <v>43679</v>
+      </c>
+      <c r="C22" s="30">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D22" s="30">
+        <v>0.71875</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+    </row>
+    <row r="23" s="5" customFormat="1" ht="52" spans="1:10">
+      <c r="A23" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="29">
+        <v>43678</v>
+      </c>
+      <c r="C23" s="30">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D23" s="30">
+        <v>0.71875</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+    </row>
+    <row r="24" s="5" customFormat="1" ht="104" spans="1:10">
+      <c r="A24" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="29">
+        <v>43677</v>
+      </c>
+      <c r="C24" s="30">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D24" s="30">
+        <v>0.71875</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+    </row>
+    <row r="25" s="5" customFormat="1" ht="65" spans="1:10">
+      <c r="A25" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="29">
+        <v>43676</v>
+      </c>
+      <c r="C25" s="30">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D25" s="30">
+        <v>0.71875</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+    </row>
+    <row r="26" s="5" customFormat="1" ht="41" customHeight="1" spans="1:10">
+      <c r="A26" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="29">
+        <v>43675</v>
+      </c>
+      <c r="C26" s="30">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D26" s="30">
+        <v>0.71875</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+    </row>
+    <row r="27" s="6" customFormat="1" ht="26" spans="1:10">
+      <c r="A27" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="33">
+        <v>43672</v>
+      </c>
+      <c r="C27" s="34">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D27" s="34">
+        <v>0.71875</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+    </row>
+    <row r="28" s="6" customFormat="1" ht="39" spans="1:10">
+      <c r="A28" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="33">
+        <v>43671</v>
+      </c>
+      <c r="C28" s="34">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D28" s="34">
+        <v>0.71875</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+    </row>
+    <row r="29" s="6" customFormat="1" ht="39" spans="1:10">
+      <c r="A29" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="33">
+        <v>43670</v>
+      </c>
+      <c r="C29" s="34">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D29" s="34">
+        <v>0.71875</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+    </row>
+    <row r="30" s="6" customFormat="1" ht="26" spans="1:10">
+      <c r="A30" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="33">
+        <v>43669</v>
+      </c>
+      <c r="C30" s="34">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D30" s="34">
+        <v>0.71875</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+    </row>
+    <row r="31" s="6" customFormat="1" ht="26" spans="1:10">
+      <c r="A31" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="33">
+        <v>43668</v>
+      </c>
+      <c r="C31" s="34">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D31" s="34">
+        <v>0.71875</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+    </row>
+    <row r="32" s="7" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="A32" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="21">
         <v>43665</v>
       </c>
-      <c r="C3" s="18">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D3" s="18">
-        <v>0.71875</v>
-      </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-    </row>
-    <row r="4" s="3" customFormat="1" ht="15" customHeight="1" spans="1:12">
-      <c r="A4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="17">
+      <c r="C32" s="22">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D32" s="22">
+        <v>0.71875</v>
+      </c>
+      <c r="E32" s="36"/>
+      <c r="F32" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32" s="87"/>
+      <c r="L32" s="87"/>
+    </row>
+    <row r="33" s="7" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="A33" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="21">
         <v>43664</v>
       </c>
-      <c r="C4" s="18">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D4" s="18">
-        <v>0.71875</v>
-      </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="15" customHeight="1" spans="1:12">
-      <c r="A5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="17">
+      <c r="C33" s="22">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D33" s="22">
+        <v>0.71875</v>
+      </c>
+      <c r="E33" s="36"/>
+      <c r="F33" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J33" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="K33" s="87"/>
+      <c r="L33" s="87"/>
+    </row>
+    <row r="34" s="7" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="A34" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="21">
         <v>43663</v>
       </c>
-      <c r="C5" s="18">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D5" s="18">
-        <v>0.71875</v>
-      </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-    </row>
-    <row r="6" s="3" customFormat="1" ht="15" customHeight="1" spans="1:12">
-      <c r="A6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="17">
+      <c r="C34" s="22">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D34" s="22">
+        <v>0.71875</v>
+      </c>
+      <c r="E34" s="36"/>
+      <c r="F34" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="J34" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="K34" s="87"/>
+      <c r="L34" s="87"/>
+    </row>
+    <row r="35" s="7" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="A35" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="21">
         <v>43662</v>
       </c>
-      <c r="C6" s="18">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D6" s="18">
-        <v>0.71875</v>
-      </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="15" customHeight="1" spans="1:12">
-      <c r="A7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="17">
+      <c r="C35" s="22">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D35" s="22">
+        <v>0.71875</v>
+      </c>
+      <c r="E35" s="36"/>
+      <c r="F35" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="J35" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="K35" s="87"/>
+      <c r="L35" s="87"/>
+    </row>
+    <row r="36" s="7" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="A36" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="21">
         <v>43661</v>
       </c>
-      <c r="C7" s="18">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D7" s="18">
-        <v>0.71875</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-    </row>
-    <row r="8" s="4" customFormat="1" ht="15" customHeight="1" spans="1:12">
-      <c r="A8" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="22">
+      <c r="C36" s="22">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D36" s="22">
+        <v>0.71875</v>
+      </c>
+      <c r="E36" s="36"/>
+      <c r="F36" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+    </row>
+    <row r="37" s="8" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="A37" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="38">
         <v>43658</v>
       </c>
-      <c r="C8" s="23">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D8" s="23">
-        <v>0.71875</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-    </row>
-    <row r="9" s="4" customFormat="1" ht="15" customHeight="1" spans="1:12">
-      <c r="A9" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="22">
+      <c r="C37" s="39">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D37" s="39">
+        <v>0.71875</v>
+      </c>
+      <c r="E37" s="40"/>
+      <c r="F37" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="I37" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="J37" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="K37" s="88"/>
+      <c r="L37" s="88"/>
+    </row>
+    <row r="38" s="8" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="A38" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="38">
         <v>43657</v>
       </c>
-      <c r="C9" s="23">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D9" s="23">
-        <v>0.71875</v>
-      </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-    </row>
-    <row r="10" s="4" customFormat="1" ht="15" customHeight="1" spans="1:12">
-      <c r="A10" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="22">
+      <c r="C38" s="39">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D38" s="39">
+        <v>0.71875</v>
+      </c>
+      <c r="E38" s="40"/>
+      <c r="F38" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="I38" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="J38" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="K38" s="88"/>
+      <c r="L38" s="88"/>
+    </row>
+    <row r="39" s="8" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="A39" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="38">
         <v>43656</v>
       </c>
-      <c r="C10" s="23">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D10" s="23">
-        <v>0.71875</v>
-      </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-    </row>
-    <row r="11" s="4" customFormat="1" ht="15" customHeight="1" spans="1:12">
-      <c r="A11" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="22">
+      <c r="C39" s="39">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D39" s="39">
+        <v>0.71875</v>
+      </c>
+      <c r="E39" s="40"/>
+      <c r="F39" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="H39" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="I39" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="J39" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="K39" s="88"/>
+      <c r="L39" s="88"/>
+    </row>
+    <row r="40" s="8" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="A40" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="38">
         <v>43655</v>
       </c>
-      <c r="C11" s="23">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D11" s="23">
-        <v>0.71875</v>
-      </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-    </row>
-    <row r="12" s="4" customFormat="1" ht="15" customHeight="1" spans="1:12">
-      <c r="A12" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="22">
+      <c r="C40" s="39">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D40" s="39">
+        <v>0.71875</v>
+      </c>
+      <c r="E40" s="40"/>
+      <c r="F40" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H40" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="I40" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="J40" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="K40" s="88"/>
+      <c r="L40" s="88"/>
+    </row>
+    <row r="41" s="8" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="A41" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="38">
         <v>43654</v>
       </c>
-      <c r="C12" s="23">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D12" s="23">
-        <v>0.71875</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-    </row>
-    <row r="13" s="5" customFormat="1" ht="15" customHeight="1" spans="1:12">
-      <c r="A13" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="27">
+      <c r="C41" s="39">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D41" s="39">
+        <v>0.71875</v>
+      </c>
+      <c r="E41" s="40"/>
+      <c r="F41" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="I41" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="J41" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="K41" s="88"/>
+      <c r="L41" s="88"/>
+    </row>
+    <row r="42" s="9" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="A42" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="43">
         <v>43649</v>
       </c>
-      <c r="C13" s="28">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D13" s="28">
-        <v>0.71875</v>
-      </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-    </row>
-    <row r="14" s="5" customFormat="1" ht="15" customHeight="1" spans="1:12">
-      <c r="A14" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="27">
+      <c r="C42" s="44">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D42" s="44">
+        <v>0.71875</v>
+      </c>
+      <c r="E42" s="45"/>
+      <c r="F42" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="H42" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="I42" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="J42" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="K42" s="89"/>
+      <c r="L42" s="89"/>
+    </row>
+    <row r="43" s="9" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="A43" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="43">
         <v>43648</v>
       </c>
-      <c r="C14" s="28">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D14" s="28">
-        <v>0.71875</v>
-      </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-    </row>
-    <row r="15" s="5" customFormat="1" ht="15" customHeight="1" spans="1:12">
-      <c r="A15" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="27">
+      <c r="C43" s="44">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D43" s="44">
+        <v>0.71875</v>
+      </c>
+      <c r="E43" s="45"/>
+      <c r="F43" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="G43" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="H43" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="I43" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="J43" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="K43" s="89"/>
+      <c r="L43" s="89"/>
+    </row>
+    <row r="44" s="9" customFormat="1" ht="15" customHeight="1" spans="1:12">
+      <c r="A44" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="43">
         <v>43647</v>
       </c>
-      <c r="C15" s="28">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D15" s="28">
-        <v>0.71875</v>
-      </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-    </row>
-    <row r="16" s="6" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A16" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="31">
+      <c r="C44" s="44">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D44" s="44">
+        <v>0.71875</v>
+      </c>
+      <c r="E44" s="45"/>
+      <c r="F44" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="G44" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="H44" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="I44" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="J44" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="K44" s="89"/>
+      <c r="L44" s="89"/>
+    </row>
+    <row r="45" s="10" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
+      <c r="A45" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="47">
         <v>43644</v>
       </c>
-      <c r="C16" s="32">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D16" s="32">
-        <v>0.71875</v>
-      </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="I16" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="J16" s="77" t="s">
-        <v>75</v>
-      </c>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-    </row>
-    <row r="17" s="6" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A17" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="31">
+      <c r="C45" s="48">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D45" s="48">
+        <v>0.71875</v>
+      </c>
+      <c r="E45" s="49"/>
+      <c r="F45" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="G45" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="H45" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="I45" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="J45" s="90" t="s">
+        <v>107</v>
+      </c>
+      <c r="K45" s="49"/>
+      <c r="L45" s="49"/>
+    </row>
+    <row r="46" s="10" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
+      <c r="A46" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="47">
         <v>43643</v>
       </c>
-      <c r="C17" s="32">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D17" s="32">
-        <v>0.71875</v>
-      </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="I17" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="J17" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-    </row>
-    <row r="18" s="6" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="31">
+      <c r="C46" s="48">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D46" s="48">
+        <v>0.71875</v>
+      </c>
+      <c r="E46" s="49"/>
+      <c r="F46" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="G46" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="H46" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="I46" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="J46" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="K46" s="49"/>
+      <c r="L46" s="49"/>
+    </row>
+    <row r="47" s="10" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
+      <c r="A47" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="47">
         <v>43642</v>
       </c>
-      <c r="C18" s="32">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D18" s="32">
-        <v>0.71875</v>
-      </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="I18" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="J18" s="77" t="s">
-        <v>85</v>
-      </c>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-    </row>
-    <row r="19" s="6" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="31">
+      <c r="C47" s="48">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D47" s="48">
+        <v>0.71875</v>
+      </c>
+      <c r="E47" s="49"/>
+      <c r="F47" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="G47" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="H47" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="I47" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="J47" s="90" t="s">
+        <v>117</v>
+      </c>
+      <c r="K47" s="49"/>
+      <c r="L47" s="49"/>
+    </row>
+    <row r="48" s="10" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
+      <c r="A48" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="47">
         <v>43641</v>
       </c>
-      <c r="C19" s="32">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D19" s="32">
-        <v>0.71875</v>
-      </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="I19" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="J19" s="77" t="s">
-        <v>90</v>
-      </c>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-    </row>
-    <row r="20" s="6" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="31">
+      <c r="C48" s="48">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D48" s="48">
+        <v>0.71875</v>
+      </c>
+      <c r="E48" s="49"/>
+      <c r="F48" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="G48" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="H48" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="I48" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="J48" s="90" t="s">
+        <v>122</v>
+      </c>
+      <c r="K48" s="49"/>
+      <c r="L48" s="49"/>
+    </row>
+    <row r="49" s="10" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
+      <c r="A49" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="47">
         <v>43640</v>
       </c>
-      <c r="C20" s="32">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D20" s="32">
-        <v>0.71875</v>
-      </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="I20" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="J20" s="77" t="s">
-        <v>95</v>
-      </c>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-    </row>
-    <row r="21" s="7" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A21" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="35">
+      <c r="C49" s="48">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D49" s="48">
+        <v>0.71875</v>
+      </c>
+      <c r="E49" s="49"/>
+      <c r="F49" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="G49" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="H49" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="I49" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="J49" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+    </row>
+    <row r="50" s="11" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
+      <c r="A50" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="24">
         <v>43637</v>
       </c>
-      <c r="C21" s="36">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D21" s="36">
-        <v>0.71875</v>
-      </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="H21" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="I21" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="J21" s="78" t="s">
-        <v>100</v>
-      </c>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-    </row>
-    <row r="22" s="7" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A22" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="35">
+      <c r="C50" s="26">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D50" s="26">
+        <v>0.71875</v>
+      </c>
+      <c r="E50" s="51"/>
+      <c r="F50" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="G50" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="H50" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="I50" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="J50" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="K50" s="51"/>
+      <c r="L50" s="51"/>
+    </row>
+    <row r="51" s="11" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
+      <c r="A51" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="24">
         <v>43636</v>
       </c>
-      <c r="C22" s="36">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D22" s="36">
-        <v>0.71875</v>
-      </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="H22" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="I22" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="J22" s="78" t="s">
-        <v>105</v>
-      </c>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-    </row>
-    <row r="23" s="7" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A23" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="35">
+      <c r="C51" s="26">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D51" s="26">
+        <v>0.71875</v>
+      </c>
+      <c r="E51" s="51"/>
+      <c r="F51" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="G51" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="H51" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="I51" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="J51" s="91" t="s">
+        <v>137</v>
+      </c>
+      <c r="K51" s="51"/>
+      <c r="L51" s="51"/>
+    </row>
+    <row r="52" s="11" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
+      <c r="A52" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="24">
         <v>43635</v>
       </c>
-      <c r="C23" s="36">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D23" s="36">
-        <v>0.71875</v>
-      </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="I23" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="J23" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-    </row>
-    <row r="24" s="7" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A24" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="35">
+      <c r="C52" s="26">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D52" s="26">
+        <v>0.71875</v>
+      </c>
+      <c r="E52" s="51"/>
+      <c r="F52" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="G52" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="H52" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="I52" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="J52" s="91" t="s">
+        <v>142</v>
+      </c>
+      <c r="K52" s="51"/>
+      <c r="L52" s="51"/>
+    </row>
+    <row r="53" s="11" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
+      <c r="A53" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="24">
         <v>43634</v>
       </c>
-      <c r="C24" s="36">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D24" s="36">
-        <v>0.71875</v>
-      </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="G24" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="H24" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="I24" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="J24" s="78" t="s">
-        <v>115</v>
-      </c>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-    </row>
-    <row r="25" s="7" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A25" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="35">
+      <c r="C53" s="26">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D53" s="26">
+        <v>0.71875</v>
+      </c>
+      <c r="E53" s="51"/>
+      <c r="F53" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="G53" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="H53" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="I53" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="J53" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="K53" s="51"/>
+      <c r="L53" s="51"/>
+    </row>
+    <row r="54" s="11" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
+      <c r="A54" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="24">
         <v>43633</v>
       </c>
-      <c r="C25" s="36">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D25" s="36">
-        <v>0.71875</v>
-      </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="G25" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="H25" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="I25" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="J25" s="79" t="s">
-        <v>120</v>
-      </c>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-    </row>
-    <row r="26" s="8" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A26" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="41">
+      <c r="C54" s="26">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D54" s="26">
+        <v>0.71875</v>
+      </c>
+      <c r="E54" s="51"/>
+      <c r="F54" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="G54" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="H54" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="I54" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="J54" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="K54" s="51"/>
+      <c r="L54" s="51"/>
+    </row>
+    <row r="55" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
+      <c r="A55" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="54">
         <v>43585</v>
       </c>
-      <c r="C26" s="42">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D26" s="42">
-        <v>0.71875</v>
-      </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="G26" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="H26" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="I26" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="J26" s="80" t="s">
-        <v>125</v>
-      </c>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-    </row>
-    <row r="27" s="8" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A27" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="41">
+      <c r="C55" s="55">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D55" s="55">
+        <v>0.71875</v>
+      </c>
+      <c r="E55" s="56"/>
+      <c r="F55" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="G55" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="H55" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="I55" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="J55" s="93" t="s">
+        <v>157</v>
+      </c>
+      <c r="K55" s="56"/>
+      <c r="L55" s="56"/>
+    </row>
+    <row r="56" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
+      <c r="A56" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="54">
         <v>43584</v>
       </c>
-      <c r="C27" s="46">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D27" s="46">
-        <v>0.71875</v>
-      </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="G27" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="I27" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="J27" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-    </row>
-    <row r="28" s="8" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
-      <c r="A28" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="41">
+      <c r="C56" s="59">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D56" s="59">
+        <v>0.71875</v>
+      </c>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="G56" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="H56" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="I56" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="J56" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="K56" s="56"/>
+      <c r="L56" s="56"/>
+    </row>
+    <row r="57" s="12" customFormat="1" ht="19.5" customHeight="1" spans="1:12">
+      <c r="A57" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="54">
         <v>43583</v>
       </c>
-      <c r="C28" s="42">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D28" s="42">
-        <v>0.71875</v>
-      </c>
-      <c r="E28" s="48"/>
-      <c r="F28" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="G28" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="H28" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="I28" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="J28" s="81" t="s">
-        <v>135</v>
-      </c>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A29" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="50">
+      <c r="C57" s="55">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D57" s="55">
+        <v>0.71875</v>
+      </c>
+      <c r="E57" s="61"/>
+      <c r="F57" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="G57" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="H57" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="I57" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="J57" s="94" t="s">
+        <v>167</v>
+      </c>
+      <c r="K57" s="56"/>
+      <c r="L57" s="56"/>
+    </row>
+    <row r="58" s="2" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A58" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="63">
         <v>43581</v>
       </c>
-      <c r="C29" s="51">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D29" s="51">
-        <v>0.71875</v>
-      </c>
-      <c r="E29" s="52"/>
-      <c r="F29" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="G29" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="H29" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="I29" s="82" t="s">
-        <v>139</v>
-      </c>
-      <c r="J29" s="83" t="s">
-        <v>140</v>
-      </c>
-      <c r="K29" s="84"/>
-      <c r="L29" s="85"/>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A30" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="57">
+      <c r="C58" s="64">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D58" s="64">
+        <v>0.71875</v>
+      </c>
+      <c r="E58" s="65"/>
+      <c r="F58" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="G58" s="67" t="s">
+        <v>169</v>
+      </c>
+      <c r="H58" s="68" t="s">
+        <v>170</v>
+      </c>
+      <c r="I58" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="J58" s="96" t="s">
+        <v>172</v>
+      </c>
+      <c r="K58" s="97"/>
+      <c r="L58" s="98"/>
+    </row>
+    <row r="59" s="2" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A59" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="70">
         <v>43580</v>
       </c>
-      <c r="C30" s="58">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D30" s="58">
-        <v>0.71875</v>
-      </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="60" t="s">
-        <v>141</v>
-      </c>
-      <c r="G30" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="H30" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="I30" s="86" t="s">
-        <v>144</v>
-      </c>
-      <c r="J30" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="K30" s="88"/>
-      <c r="L30" s="89"/>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A31" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="57">
+      <c r="C59" s="71">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D59" s="71">
+        <v>0.71875</v>
+      </c>
+      <c r="E59" s="72"/>
+      <c r="F59" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="G59" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="H59" s="75" t="s">
+        <v>175</v>
+      </c>
+      <c r="I59" s="99" t="s">
+        <v>176</v>
+      </c>
+      <c r="J59" s="100" t="s">
+        <v>177</v>
+      </c>
+      <c r="K59" s="101"/>
+      <c r="L59" s="102"/>
+    </row>
+    <row r="60" s="2" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A60" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="70">
         <v>43579</v>
       </c>
-      <c r="C31" s="58">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D31" s="58">
-        <v>0.71875</v>
-      </c>
-      <c r="E31" s="59"/>
-      <c r="F31" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="G31" s="61" t="s">
-        <v>147</v>
-      </c>
-      <c r="H31" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="I31" s="86" t="s">
-        <v>149</v>
-      </c>
-      <c r="J31" s="87" t="s">
-        <v>150</v>
-      </c>
-      <c r="K31" s="88"/>
-      <c r="L31" s="89"/>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A32" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="57">
+      <c r="C60" s="71">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D60" s="71">
+        <v>0.71875</v>
+      </c>
+      <c r="E60" s="72"/>
+      <c r="F60" s="73" t="s">
+        <v>178</v>
+      </c>
+      <c r="G60" s="74" t="s">
+        <v>179</v>
+      </c>
+      <c r="H60" s="75" t="s">
+        <v>180</v>
+      </c>
+      <c r="I60" s="99" t="s">
+        <v>181</v>
+      </c>
+      <c r="J60" s="100" t="s">
+        <v>182</v>
+      </c>
+      <c r="K60" s="101"/>
+      <c r="L60" s="102"/>
+    </row>
+    <row r="61" s="2" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A61" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="70">
         <v>43578</v>
       </c>
-      <c r="C32" s="58">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D32" s="58">
-        <v>0.71875</v>
-      </c>
-      <c r="E32" s="59"/>
-      <c r="F32" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="G32" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="H32" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="I32" s="86" t="s">
-        <v>154</v>
-      </c>
-      <c r="J32" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="K32" s="88"/>
-      <c r="L32" s="89"/>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="30" customHeight="1" spans="1:12">
-      <c r="A33" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="57">
+      <c r="C61" s="71">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D61" s="71">
+        <v>0.71875</v>
+      </c>
+      <c r="E61" s="72"/>
+      <c r="F61" s="73" t="s">
+        <v>183</v>
+      </c>
+      <c r="G61" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="H61" s="75" t="s">
+        <v>185</v>
+      </c>
+      <c r="I61" s="99" t="s">
+        <v>186</v>
+      </c>
+      <c r="J61" s="100" t="s">
+        <v>187</v>
+      </c>
+      <c r="K61" s="101"/>
+      <c r="L61" s="102"/>
+    </row>
+    <row r="62" s="2" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A62" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="70">
         <v>43577</v>
       </c>
-      <c r="C33" s="58">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D33" s="58">
-        <v>0.71875</v>
-      </c>
-      <c r="E33" s="59"/>
-      <c r="F33" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="G33" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="H33" s="62" t="s">
-        <v>158</v>
-      </c>
-      <c r="I33" s="86" t="s">
-        <v>159</v>
-      </c>
-      <c r="J33" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="K33" s="88"/>
-      <c r="L33" s="89"/>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="34.5" customHeight="1" spans="1:12">
-      <c r="A34" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="64">
+      <c r="C62" s="71">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D62" s="71">
+        <v>0.71875</v>
+      </c>
+      <c r="E62" s="72"/>
+      <c r="F62" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="G62" s="74" t="s">
+        <v>189</v>
+      </c>
+      <c r="H62" s="75" t="s">
+        <v>190</v>
+      </c>
+      <c r="I62" s="99" t="s">
+        <v>191</v>
+      </c>
+      <c r="J62" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="K62" s="101"/>
+      <c r="L62" s="102"/>
+    </row>
+    <row r="63" s="2" customFormat="1" ht="34.5" customHeight="1" spans="1:12">
+      <c r="A63" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="77">
         <v>43574</v>
       </c>
-      <c r="C34" s="65">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D34" s="66">
-        <v>0.71875</v>
-      </c>
-      <c r="E34" s="67"/>
-      <c r="F34" s="68" t="s">
-        <v>161</v>
-      </c>
-      <c r="G34" s="69" t="s">
-        <v>162</v>
-      </c>
-      <c r="H34" s="70" t="s">
-        <v>163</v>
-      </c>
-      <c r="I34" s="90" t="s">
-        <v>164</v>
-      </c>
-      <c r="J34" s="91" t="s">
-        <v>165</v>
-      </c>
-      <c r="K34" s="92"/>
-      <c r="L34" s="93"/>
-    </row>
-    <row r="35" s="2" customFormat="1" ht="34.5" customHeight="1" spans="1:12">
-      <c r="A35" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="64">
+      <c r="C63" s="78">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D63" s="79">
+        <v>0.71875</v>
+      </c>
+      <c r="E63" s="80"/>
+      <c r="F63" s="81" t="s">
+        <v>193</v>
+      </c>
+      <c r="G63" s="82" t="s">
+        <v>194</v>
+      </c>
+      <c r="H63" s="83" t="s">
+        <v>195</v>
+      </c>
+      <c r="I63" s="103" t="s">
+        <v>196</v>
+      </c>
+      <c r="J63" s="104" t="s">
+        <v>197</v>
+      </c>
+      <c r="K63" s="105"/>
+      <c r="L63" s="106"/>
+    </row>
+    <row r="64" s="2" customFormat="1" ht="34.5" customHeight="1" spans="1:12">
+      <c r="A64" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="77">
         <v>43573</v>
       </c>
-      <c r="C35" s="65">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D35" s="66">
-        <v>0.71875</v>
-      </c>
-      <c r="E35" s="67"/>
-      <c r="F35" s="68" t="s">
-        <v>166</v>
-      </c>
-      <c r="G35" s="69" t="s">
-        <v>167</v>
-      </c>
-      <c r="H35" s="70" t="s">
-        <v>168</v>
-      </c>
-      <c r="I35" s="90" t="s">
-        <v>169</v>
-      </c>
-      <c r="J35" s="91" t="s">
-        <v>170</v>
-      </c>
-      <c r="K35" s="92"/>
-      <c r="L35" s="93"/>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="34.5" customHeight="1" spans="1:12">
-      <c r="A36" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="64">
+      <c r="C64" s="78">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D64" s="79">
+        <v>0.71875</v>
+      </c>
+      <c r="E64" s="80"/>
+      <c r="F64" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="G64" s="82" t="s">
+        <v>199</v>
+      </c>
+      <c r="H64" s="83" t="s">
+        <v>200</v>
+      </c>
+      <c r="I64" s="103" t="s">
+        <v>201</v>
+      </c>
+      <c r="J64" s="104" t="s">
+        <v>202</v>
+      </c>
+      <c r="K64" s="105"/>
+      <c r="L64" s="106"/>
+    </row>
+    <row r="65" s="2" customFormat="1" ht="34.5" customHeight="1" spans="1:12">
+      <c r="A65" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="77">
         <v>43572</v>
       </c>
-      <c r="C36" s="65">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D36" s="66">
-        <v>0.71875</v>
-      </c>
-      <c r="E36" s="67"/>
-      <c r="F36" s="68" t="s">
-        <v>171</v>
-      </c>
-      <c r="G36" s="69" t="s">
-        <v>172</v>
-      </c>
-      <c r="H36" s="70" t="s">
-        <v>173</v>
-      </c>
-      <c r="I36" s="90" t="s">
-        <v>174</v>
-      </c>
-      <c r="J36" s="91" t="s">
-        <v>175</v>
-      </c>
-      <c r="K36" s="92"/>
-      <c r="L36" s="93"/>
-    </row>
-    <row r="37" s="2" customFormat="1" ht="34.5" customHeight="1" spans="1:12">
-      <c r="A37" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="64">
+      <c r="C65" s="78">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D65" s="79">
+        <v>0.71875</v>
+      </c>
+      <c r="E65" s="80"/>
+      <c r="F65" s="81" t="s">
+        <v>203</v>
+      </c>
+      <c r="G65" s="82" t="s">
+        <v>204</v>
+      </c>
+      <c r="H65" s="83" t="s">
+        <v>205</v>
+      </c>
+      <c r="I65" s="103" t="s">
+        <v>206</v>
+      </c>
+      <c r="J65" s="104" t="s">
+        <v>207</v>
+      </c>
+      <c r="K65" s="105"/>
+      <c r="L65" s="106"/>
+    </row>
+    <row r="66" s="2" customFormat="1" ht="34.5" customHeight="1" spans="1:12">
+      <c r="A66" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="77">
         <v>43571</v>
       </c>
-      <c r="C37" s="65">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D37" s="66">
-        <v>0.71875</v>
-      </c>
-      <c r="E37" s="67"/>
-      <c r="F37" s="68" t="s">
-        <v>176</v>
-      </c>
-      <c r="G37" s="69" t="s">
-        <v>177</v>
-      </c>
-      <c r="H37" s="70" t="s">
-        <v>178</v>
-      </c>
-      <c r="I37" s="90" t="s">
-        <v>179</v>
-      </c>
-      <c r="J37" s="91" t="s">
-        <v>180</v>
-      </c>
-      <c r="K37" s="92"/>
-      <c r="L37" s="93"/>
-    </row>
-    <row r="38" s="2" customFormat="1" ht="32.25" customHeight="1" spans="1:12">
-      <c r="A38" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="64">
+      <c r="C66" s="78">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D66" s="79">
+        <v>0.71875</v>
+      </c>
+      <c r="E66" s="80"/>
+      <c r="F66" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="G66" s="82" t="s">
+        <v>209</v>
+      </c>
+      <c r="H66" s="83" t="s">
+        <v>210</v>
+      </c>
+      <c r="I66" s="103" t="s">
+        <v>211</v>
+      </c>
+      <c r="J66" s="104" t="s">
+        <v>212</v>
+      </c>
+      <c r="K66" s="105"/>
+      <c r="L66" s="106"/>
+    </row>
+    <row r="67" s="2" customFormat="1" ht="32.25" customHeight="1" spans="1:12">
+      <c r="A67" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="77">
         <v>43570</v>
       </c>
-      <c r="C38" s="65">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="D38" s="66">
-        <v>0.71875</v>
-      </c>
-      <c r="E38" s="67"/>
-      <c r="F38" s="68" t="s">
-        <v>181</v>
-      </c>
-      <c r="G38" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="H38" s="70" t="s">
-        <v>183</v>
-      </c>
-      <c r="I38" s="90" t="s">
-        <v>184</v>
-      </c>
-      <c r="J38" s="91" t="s">
-        <v>185</v>
-      </c>
-      <c r="K38" s="92"/>
-      <c r="L38" s="93"/>
+      <c r="C67" s="78">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="D67" s="79">
+        <v>0.71875</v>
+      </c>
+      <c r="E67" s="80"/>
+      <c r="F67" s="81" t="s">
+        <v>213</v>
+      </c>
+      <c r="G67" s="82" t="s">
+        <v>214</v>
+      </c>
+      <c r="H67" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="I67" s="103" t="s">
+        <v>216</v>
+      </c>
+      <c r="J67" s="104" t="s">
+        <v>217</v>
+      </c>
+      <c r="K67" s="105"/>
+      <c r="L67" s="106"/>
     </row>
   </sheetData>
+  <sortState ref="B3:B31">
+    <sortCondition ref="B3:B31" descending="1"/>
+  </sortState>
   <mergeCells count="5">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:B2"/>
